--- a/vs-libraries/Yash.Config/Yash.Config.StudioTestProject/Data/Config.xlsx
+++ b/vs-libraries/Yash.Config/Yash.Config.StudioTestProject/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eyash\UiPath\Wizard\Yash.Config.Wizard\Yash.Config.StudioTestProject\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eyash\UiPath\vs-libraries\Yash.Config\Yash.Config.StudioTestProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5123B3E5-CB55-4F23-B158-7B36BB10C13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6CB279-C378-48D6-8A12-A544E7061DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1180" yWindow="-110" windowWidth="37330" windowHeight="21820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_Instructions" sheetId="16" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="90">
   <si>
     <t>Name</t>
   </si>
@@ -288,6 +288,123 @@
 For Files, either:
 Provide a local path, and leave Folder and Bucket empty, OR
 Provide Bucket, Folder, and Path, and leave local path blank.</t>
+  </si>
+  <si>
+    <t>Example Input</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>hello world</t>
+  </si>
+  <si>
+    <t>No transformation; returned as-is.</t>
+  </si>
+  <si>
+    <t>Must be a valid integer.</t>
+  </si>
+  <si>
+    <t>Accepts decimal format; culture-dependent parsing may apply.</t>
+  </si>
+  <si>
+    <t>true or false</t>
+  </si>
+  <si>
+    <t>Case-insensitive in bool.Parse.</t>
+  </si>
+  <si>
+    <t>2024-12-31T23:59:59</t>
+  </si>
+  <si>
+    <t>Uses DateTime.Parse – ISO 8601 recommended.</t>
+  </si>
+  <si>
+    <t>Format: hh:mm:ss or other TimeSpan.Parse-compatible.</t>
+  </si>
+  <si>
+    <t>apple,banana,carrot</t>
+  </si>
+  <si>
+    <t>No trimming; strings parsed as-is.</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>Each item must be an integer.</t>
+  </si>
+  <si>
+    <t>1.1,2.2,3.3</t>
+  </si>
+  <si>
+    <t>Each item must be a double.</t>
+  </si>
+  <si>
+    <t>true,false,true</t>
+  </si>
+  <si>
+    <t>Case-insensitive.</t>
+  </si>
+  <si>
+    <t>2024-01-01,2024-12-31</t>
+  </si>
+  <si>
+    <t>Acceptable DateTime.Parse formats.</t>
+  </si>
+  <si>
+    <t>00:30:00,01:00:00</t>
+  </si>
+  <si>
+    <t>Must follow TimeSpan.Parse format.</t>
+  </si>
+  <si>
+    <t>foo,bar,baz</t>
+  </si>
+  <si>
+    <t>Same behavior as List&lt;string&gt;.</t>
+  </si>
+  <si>
+    <t>10,20,30</t>
+  </si>
+  <si>
+    <t>Same behavior as List&lt;int&gt;.</t>
+  </si>
+  <si>
+    <t>0.1,0.2,0.3</t>
+  </si>
+  <si>
+    <t>Same behavior as List&lt;double&gt;.</t>
+  </si>
+  <si>
+    <t>false,true,false</t>
+  </si>
+  <si>
+    <t>Same behavior as List&lt;bool&gt;.</t>
+  </si>
+  <si>
+    <t>2024-01-01T00:00:00,2025-01-01</t>
+  </si>
+  <si>
+    <t>Same behavior as List&lt;DateTime&gt;.</t>
+  </si>
+  <si>
+    <t>00:10:00,01:15:00</t>
+  </si>
+  <si>
+    <t>Same behavior as List&lt;TimeSpan&gt;.</t>
+  </si>
+  <si>
+    <t>Examples for Data Types</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value </t>
+  </si>
+  <si>
+    <t>Sample</t>
   </si>
 </sst>
 </file>
@@ -369,7 +486,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -402,13 +519,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -885,135 +1008,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089FB120-E308-4ADC-9148-E91D88344CA8}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
@@ -1056,32 +1180,32 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
@@ -1132,32 +1256,32 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="8" t="s">
@@ -1238,87 +1362,311 @@
       <c r="J37" s="13"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="11">
+        <v>42</v>
+      </c>
+      <c r="C49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="11">
+        <v>3.14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="12">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A17:J17"/>
     <mergeCell ref="A2:J6"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="A9:J9"/>
     <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A46:J46"/>
     <mergeCell ref="A18:J18"/>
     <mergeCell ref="A26:J26"/>
     <mergeCell ref="A27:J27"/>
@@ -1326,6 +1674,7 @@
     <mergeCell ref="A38:J43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1333,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1360,10 +1709,18 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2"/>
@@ -1534,7 +1891,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{28E76909-1B78-4554-A8DF-13EEE3357FB5}">
       <formula1>Valid_Types</formula1>
     </dataValidation>
@@ -1551,7 +1908,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1610,7 +1967,7 @@
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:XFD1048576"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/vs-libraries/Yash.Config/Yash.Config.StudioTestProject/Data/Config.xlsx
+++ b/vs-libraries/Yash.Config/Yash.Config.StudioTestProject/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eyash\UiPath\vs-libraries\Yash.Config\Yash.Config.StudioTestProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6CB279-C378-48D6-8A12-A544E7061DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3541066-FD72-49C8-B57B-2DF6B2C034AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="-110" windowWidth="37330" windowHeight="21820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_Instructions" sheetId="16" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>Name</t>
   </si>
@@ -405,6 +405,12 @@
   </si>
   <si>
     <t>Sample</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Shared</t>
   </si>
 </sst>
 </file>
@@ -524,27 +530,30 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -679,26 +688,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{929738B1-C1A0-4FFF-98BE-7F301DFD5CE1}" name="Sheet1" displayName="Sheet1" ref="A1:D22" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:D22" xr:uid="{929738B1-C1A0-4FFF-98BE-7F301DFD5CE1}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{63F7CC7F-1A55-48DA-BA39-0B2066A8FA17}" name="Name" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{EBD4E158-27D7-4F94-A35F-8921A078C9B2}" name="Value" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{F2049FCF-6EF9-4F31-B58E-D3F40AF1A2E1}" name="Type" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{5E2EC513-7E7B-4AAA-8002-B01706D38037}" name="Description" dataDxfId="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{929738B1-C1A0-4FFF-98BE-7F301DFD5CE1}" name="Sheet1" displayName="Sheet1" ref="A1:E22" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:E22" xr:uid="{929738B1-C1A0-4FFF-98BE-7F301DFD5CE1}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{63F7CC7F-1A55-48DA-BA39-0B2066A8FA17}" name="Name" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{EBD4E158-27D7-4F94-A35F-8921A078C9B2}" name="Value" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{F2049FCF-6EF9-4F31-B58E-D3F40AF1A2E1}" name="Type" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{8C19341B-FBCF-4B1E-B71D-7B320EAC0DD1}" name="Scope" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{5E2EC513-7E7B-4AAA-8002-B01706D38037}" name="Description" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{465E7436-A542-451E-99E0-4B5834425E76}" name="Table3" displayName="Table3" ref="A1:E7" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="A1:E7" xr:uid="{465E7436-A542-451E-99E0-4B5834425E76}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{465E7436-A542-451E-99E0-4B5834425E76}" name="Table3" displayName="Table3" ref="A1:F7" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:F7" xr:uid="{465E7436-A542-451E-99E0-4B5834425E76}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{9ABACF68-C813-4EDB-8C7E-A042074B5440}" name="Name"/>
     <tableColumn id="2" xr3:uid="{23B078BE-4059-4CCB-B4D8-0B886A262995}" name="Value"/>
     <tableColumn id="3" xr3:uid="{9A41DEAB-B68A-48EA-A23D-8909BAF49598}" name="Folder"/>
     <tableColumn id="4" xr3:uid="{E638D804-5AD4-4DD1-89FF-918F1C985ECC}" name="Type"/>
+    <tableColumn id="7" xr3:uid="{B7BDA423-FCF4-465D-832A-87690435A38C}" name="Scope"/>
     <tableColumn id="5" xr3:uid="{61866CBE-3B45-43CF-ACC5-6D69BACB8C21}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -706,15 +717,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4A4AE972-ECEC-4391-A9F2-56F9A515F432}" name="Table4" displayName="Table4" ref="A1:G8" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:G8" xr:uid="{4A4AE972-ECEC-4391-A9F2-56F9A515F432}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4A4AE972-ECEC-4391-A9F2-56F9A515F432}" name="Table4" displayName="Table4" ref="A1:H8" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:H8" xr:uid="{4A4AE972-ECEC-4391-A9F2-56F9A515F432}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{85CA9CC7-CE73-48EE-B0EE-291C8FA61913}" name="Name"/>
     <tableColumn id="2" xr3:uid="{5BC48B8E-66DC-4FB7-AED0-30C0FCCACA0A}" name="Path"/>
     <tableColumn id="3" xr3:uid="{8049D958-97B9-422C-9343-7693126A0E37}" name="Folder"/>
     <tableColumn id="4" xr3:uid="{FFB67F59-9876-4531-935C-B8655541E45A}" name="Bucket"/>
     <tableColumn id="5" xr3:uid="{DEC3FC67-955F-46A4-8A1D-FEE23156A3F3}" name="FileType"/>
     <tableColumn id="6" xr3:uid="{21C0C877-C90F-4642-8D09-211F2BF1A7F7}" name="Type"/>
+    <tableColumn id="8" xr3:uid="{9E7714C0-DF5B-42A2-8B2A-C84855F9D7E3}" name="Scope"/>
     <tableColumn id="7" xr3:uid="{A6FBA8CD-492D-4A8A-8F92-42CCEBC91936}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1010,7 +1022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089FB120-E308-4ADC-9148-E91D88344CA8}">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A37" sqref="A37:J37"/>
     </sheetView>
   </sheetViews>
@@ -1022,122 +1034,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
@@ -1180,32 +1192,32 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
@@ -1256,32 +1268,32 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="8" t="s">
@@ -1348,106 +1360,106 @@
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
@@ -1660,18 +1672,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A38:J43"/>
     <mergeCell ref="A17:J17"/>
     <mergeCell ref="A2:J6"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="A9:J9"/>
     <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A38:J43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1680,10 +1692,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1691,10 +1703,11 @@
     <col min="1" max="1" width="31.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" customWidth="1"/>
+    <col min="5" max="5" width="55.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1705,10 +1718,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>87</v>
       </c>
@@ -1719,132 +1735,155 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" s="2"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="D13" s="3"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="D14" s="3"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15" s="7"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="D15" s="3"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23:C1048576 C1:C20" xr:uid="{E5FD5CF7-D43C-41FD-A92B-443FB9296A1F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C20 C23:C1048576" xr:uid="{E5FD5CF7-D43C-41FD-A92B-443FB9296A1F}">
       <formula1>Valid_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -1858,10 +1897,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1870,10 +1909,11 @@
     <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="148.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" customWidth="1"/>
+    <col min="6" max="6" width="148.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1887,11 +1927,14 @@
         <v>5</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{28E76909-1B78-4554-A8DF-13EEE3357FB5}">
       <formula1>Valid_Types</formula1>
     </dataValidation>
@@ -1905,10 +1948,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1919,10 +1962,11 @@
     <col min="4" max="4" width="49.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="70.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" customWidth="1"/>
+    <col min="8" max="8" width="70.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1942,10 +1986,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="5"/>
       <c r="B2" s="4"/>
     </row>
